--- a/SmartBooks.HumanResource/bin/x86/Debug/Teamleate/ChamCongChiTietNgay.xlsx
+++ b/SmartBooks.HumanResource/bin/x86/Debug/Teamleate/ChamCongChiTietNgay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCodeHR\SnK_Dev\SmartBooks.HumanResource\bin\x86\Debug\Teamleate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0558E95-92CA-4AD4-A3B1-434C8B09367D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7FCA6D-BCE5-4542-A9B5-1DFAA76E3AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,10 +183,10 @@
     <t>DepartmentName</t>
   </si>
   <si>
-    <t>DepartmentCode1</t>
-  </si>
-  <si>
     <t>FactoryName</t>
+  </si>
+  <si>
+    <t>SectionName</t>
   </si>
 </sst>
 </file>
@@ -535,6 +535,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -547,18 +559,12 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="13" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -576,12 +582,6 @@
     </xf>
     <xf numFmtId="3" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -867,7 +867,7 @@
   <dimension ref="A1:BM11"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,15 +1074,15 @@
       <c r="BH3" s="32"/>
     </row>
     <row r="4" spans="1:65" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1138,15 +1138,15 @@
       <c r="BH4" s="33"/>
     </row>
     <row r="5" spans="1:65" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1263,7 +1263,7 @@
       <c r="BG6" s="33"/>
       <c r="BH6" s="33"/>
     </row>
-    <row r="7" spans="1:65" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1401,10 +1401,10 @@
         <v>43</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>5</v>
@@ -1467,25 +1467,25 @@
       <c r="A10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="44" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="16" t="s">
@@ -1592,53 +1592,53 @@
       <c r="AR10" s="16">
         <v>31</v>
       </c>
-      <c r="AS10" s="43" t="s">
+      <c r="AS10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AT10" s="43"/>
+      <c r="AT10" s="39"/>
       <c r="AU10" s="26"/>
-      <c r="AV10" s="43" t="s">
+      <c r="AV10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AW10" s="43" t="s">
+      <c r="AW10" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AX10" s="44" t="s">
+      <c r="AX10" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="AY10" s="45"/>
-      <c r="AZ10" s="45"/>
-      <c r="BA10" s="46"/>
-      <c r="BB10" s="47" t="s">
+      <c r="AY10" s="47"/>
+      <c r="AZ10" s="47"/>
+      <c r="BA10" s="48"/>
+      <c r="BB10" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="BC10" s="47"/>
-      <c r="BD10" s="48" t="s">
+      <c r="BC10" s="49"/>
+      <c r="BD10" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="BE10" s="48" t="s">
+      <c r="BE10" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="BF10" s="49" t="s">
+      <c r="BF10" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="BG10" s="48" t="s">
+      <c r="BG10" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="BH10" s="36" t="s">
+      <c r="BH10" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="BI10" s="36" t="s">
+      <c r="BI10" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="BJ10" s="37" t="s">
+      <c r="BJ10" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="BK10" s="38" t="s">
+      <c r="BK10" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="BL10" s="38"/>
-      <c r="BM10" s="39" t="s">
+      <c r="BL10" s="42"/>
+      <c r="BM10" s="43" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1646,19 +1646,19 @@
       <c r="A11" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="42"/>
+      <c r="H11" s="45"/>
       <c r="I11" s="16" t="s">
         <v>11</v>
       </c>
@@ -1714,8 +1714,8 @@
       <c r="AU11" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AV11" s="43"/>
-      <c r="AW11" s="43"/>
+      <c r="AV11" s="39"/>
+      <c r="AW11" s="39"/>
       <c r="AX11" s="28">
         <v>1.5</v>
       </c>
@@ -1734,33 +1734,24 @@
       <c r="BC11" s="29">
         <v>3.9</v>
       </c>
-      <c r="BD11" s="48"/>
-      <c r="BE11" s="48"/>
-      <c r="BF11" s="49"/>
-      <c r="BG11" s="48"/>
-      <c r="BH11" s="36"/>
-      <c r="BI11" s="36"/>
-      <c r="BJ11" s="37"/>
+      <c r="BD11" s="50"/>
+      <c r="BE11" s="50"/>
+      <c r="BF11" s="51"/>
+      <c r="BG11" s="50"/>
+      <c r="BH11" s="40"/>
+      <c r="BI11" s="40"/>
+      <c r="BJ11" s="41"/>
       <c r="BK11" s="27" t="s">
         <v>41</v>
       </c>
       <c r="BL11" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BM11" s="39"/>
+      <c r="BM11" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:BM11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="23">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="AV10:AV11"/>
-    <mergeCell ref="AW10:AW11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
     <mergeCell ref="BI10:BI11"/>
     <mergeCell ref="BJ10:BJ11"/>
     <mergeCell ref="BK10:BL10"/>
@@ -1775,6 +1766,15 @@
     <mergeCell ref="BE10:BE11"/>
     <mergeCell ref="BF10:BF11"/>
     <mergeCell ref="BG10:BG11"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="AV10:AV11"/>
+    <mergeCell ref="AW10:AW11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
